--- a/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,72</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 16,29</t>
+          <t>-4,72; 16,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 30,46</t>
+          <t>8,92; 29,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 24,86</t>
+          <t>3,85; 23,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 67,54</t>
+          <t>-12,92; 69,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,88; 55,79</t>
+          <t>13,64; 53,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 39,69</t>
+          <t>5,04; 36,1</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 19,76</t>
+          <t>-3,95; 18,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 14,26</t>
+          <t>-6,28; 13,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 18,35</t>
+          <t>2,75; 18,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 62,17</t>
+          <t>-8,12; 60,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 21,76</t>
+          <t>-7,83; 20,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 26,78</t>
+          <t>3,46; 27,67</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 12,51</t>
+          <t>-4,5; 13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 25,57</t>
+          <t>-0,31; 19,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 14,52</t>
+          <t>2,38; 14,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 33,89</t>
+          <t>-9,45; 35,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 44,59</t>
+          <t>-0,39; 29,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 20,18</t>
+          <t>3,11; 21,06</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 19,24</t>
+          <t>3,66; 18,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,62</t>
+          <t>0,54; 13,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 15,73</t>
+          <t>3,63; 14,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 67,48</t>
+          <t>10,7; 67,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 20,17</t>
+          <t>0,7; 18,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 21,0</t>
+          <t>4,36; 19,64</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,74%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 16,06</t>
+          <t>-1,72; 16,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 23,14</t>
+          <t>9,2; 24,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 24,78</t>
+          <t>10,41; 25,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 56,64</t>
+          <t>-4,8; 57,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 32,99</t>
+          <t>11,4; 35,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 36,5</t>
+          <t>13,41; 37,03</t>
         </is>
       </c>
     </row>
@@ -1009,27 +1009,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,65%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 12,16</t>
+          <t>-7,54; 12,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 22,27</t>
+          <t>-0,78; 17,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 9,27</t>
+          <t>-2,06; 10,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 32,67</t>
+          <t>-16,44; 33,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 33,49</t>
+          <t>-0,85; 24,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 11,25</t>
+          <t>-2,23; 12,69</t>
         </is>
       </c>
     </row>
@@ -1089,27 +1089,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,81</t>
+          <t>3,19; 11,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 16,21</t>
+          <t>6,85; 14,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,62</t>
+          <t>7,63; 13,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 31,32</t>
+          <t>8,18; 32,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 23,37</t>
+          <t>9,11; 20,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,27</t>
+          <t>9,69; 17,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>19,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,66%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,43%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.007082635767874</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.14680559523186</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.75454631001198</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2065974889386968</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2688435053446839</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1755579349816447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 16,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,92; 29,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 23,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 69,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>13,64; 53,88</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 36,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.71877936878198</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.153000225143718</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.46026286851483</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1291640037003463</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.07579602906467812</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.0441364030717055</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.49164301840163</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>27.29581598468183</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.34278476644441</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.6915503215249863</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4704974673967544</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3379864177237136</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,23%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 18,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 13,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 18,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 60,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 20,86</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 27,67</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.601043112579577</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.918827328349007</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.55521500869883</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2223105040585965</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.06681485985182359</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1556657513201866</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,61%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.950978336433066</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.068818292086006</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.808218268538613</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.08119810173253142</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.06295958496216016</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04794676237118396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 13,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 19,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 14,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; 35,68</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 29,23</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 21,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.65280111293121</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.65430825209782</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.30346979944268</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6058667411969415</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2221057652555238</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2958936932894756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,31</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>36,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.829503409571773</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.64782129938705</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.814148051596137</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1160774825044606</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1474839724135386</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1019899278664623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 18,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 13,15</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 14,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>10,7; 67,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 18,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 19,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.501879098026714</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.011469861628365</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.623417759319911</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.09446876258816149</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.02491200718696336</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.02088563780304054</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.04525282049171</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.27210530931599</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.4901259393375</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3567520074147144</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3963353124940331</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2025819800958948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,32%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,45%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 16,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,2; 24,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10,41; 25,5</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 57,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,4; 35,86</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13,41; 37,03</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.84040295077941</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.325820399377493</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.44151374408695</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3628752892137405</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1095109097123549</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1333385659282263</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,29%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.657571158694599</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.847378820003754</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.621097193061153</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1069888077257641</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02379731806086201</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.05619979875058145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; 12,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 17,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 10,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 33,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 24,91</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 12,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.91122028504986</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.56882732676006</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.26651687647006</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6717682819413617</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2099040352317361</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2167063889009065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,26</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>19,72%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.339055369066966</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>14.86938298379211</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>18.26549807276111</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.2232204137482271</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1925994232996653</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2484774655905006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 11,24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 14,18</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 13,27</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>8,18; 32,7</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>9,11; 20,15</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 17,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.715027332480556</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>8.190283287755964</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>10.94089517879953</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.04804963113003982</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.09963025976612243</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.1417161737942382</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.30051968483747</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.10819634128379</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26.41549602440466</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.5711575045418532</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3301446704303636</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.3904838974642686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.245804378018845</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.79688524948537</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.29117576451522</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.05244220141702191</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1556526495619336</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.0379832015131332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-7.539051640878826</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>2.655924875185166</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.735901236690472</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.164436425462719</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.03250933256835659</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.03008509046673813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.89018848146225</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>23.51807192216011</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>9.283822261583561</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.3393013918763143</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.3580897058875001</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.114802195516712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7.170091624906627</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.30117274403413</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.66371577637801</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1971874244794301</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1544047492645636</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.13857302990529</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>3.189417878007375</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>7.824523736124444</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>7.689744921559226</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.08178022962137699</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.103139852044365</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.0972536579520982</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.2385256787296</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.29806599521494</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>13.42265689273193</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.3269782627984281</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2183426066844741</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1786873867243074</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1184,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
